--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Chile Primera División_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Chile Primera División_2024.xlsx
@@ -49969,73 +49969,73 @@
         <v>374</v>
       </c>
       <c r="Q236">
-        <v>2.38</v>
+        <v>0</v>
       </c>
       <c r="R236">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="S236">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="T236">
-        <v>1.34</v>
+        <v>0</v>
       </c>
       <c r="U236">
-        <v>3.24</v>
+        <v>0</v>
       </c>
       <c r="V236">
-        <v>2.69</v>
+        <v>0</v>
       </c>
       <c r="W236">
-        <v>1.46</v>
+        <v>0</v>
       </c>
       <c r="X236">
-        <v>5.9</v>
+        <v>0</v>
       </c>
       <c r="Y236">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="Z236">
-        <v>999.99</v>
+        <v>0</v>
       </c>
       <c r="AA236">
         <v>0</v>
       </c>
       <c r="AB236">
-        <v>999.99</v>
+        <v>0</v>
       </c>
       <c r="AC236">
-        <v>1.02</v>
+        <v>0</v>
       </c>
       <c r="AD236">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AE236">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="AF236">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AG236">
-        <v>1.83</v>
+        <v>0</v>
       </c>
       <c r="AH236">
-        <v>2.03</v>
+        <v>0</v>
       </c>
       <c r="AI236">
-        <v>1.67</v>
+        <v>0</v>
       </c>
       <c r="AJ236">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="AK236">
-        <v>1.22</v>
+        <v>0</v>
       </c>
       <c r="AL236">
-        <v>1.26</v>
+        <v>0</v>
       </c>
       <c r="AM236">
-        <v>1.95</v>
+        <v>0</v>
       </c>
       <c r="AN236">
         <v>1</v>
@@ -50086,43 +50086,43 @@
         <v>8</v>
       </c>
       <c r="BD236">
-        <v>1.47</v>
+        <v>0</v>
       </c>
       <c r="BE236">
-        <v>6.5</v>
+        <v>0</v>
       </c>
       <c r="BF236">
-        <v>3.4</v>
+        <v>0</v>
       </c>
       <c r="BG236">
-        <v>1.19</v>
+        <v>0</v>
       </c>
       <c r="BH236">
-        <v>4.1</v>
+        <v>0</v>
       </c>
       <c r="BI236">
-        <v>1.36</v>
+        <v>0</v>
       </c>
       <c r="BJ236">
-        <v>2.85</v>
+        <v>0</v>
       </c>
       <c r="BK236">
-        <v>1.68</v>
+        <v>0</v>
       </c>
       <c r="BL236">
-        <v>2.05</v>
+        <v>0</v>
       </c>
       <c r="BM236">
-        <v>2.15</v>
+        <v>0</v>
       </c>
       <c r="BN236">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="BO236">
-        <v>2.9</v>
+        <v>0</v>
       </c>
       <c r="BP236">
-        <v>1.35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:68">
@@ -50175,73 +50175,73 @@
         <v>86</v>
       </c>
       <c r="Q237">
-        <v>2.88</v>
+        <v>0</v>
       </c>
       <c r="R237">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="S237">
-        <v>3.6</v>
+        <v>0</v>
       </c>
       <c r="T237">
-        <v>1.36</v>
+        <v>0</v>
       </c>
       <c r="U237">
-        <v>3.01</v>
+        <v>0</v>
       </c>
       <c r="V237">
-        <v>2.84</v>
+        <v>0</v>
       </c>
       <c r="W237">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="X237">
-        <v>6.3</v>
+        <v>0</v>
       </c>
       <c r="Y237">
-        <v>1.08</v>
+        <v>0</v>
       </c>
       <c r="Z237">
-        <v>999.99</v>
+        <v>0</v>
       </c>
       <c r="AA237">
         <v>0</v>
       </c>
       <c r="AB237">
-        <v>999.99</v>
+        <v>0</v>
       </c>
       <c r="AC237">
-        <v>1.03</v>
+        <v>0</v>
       </c>
       <c r="AD237">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AE237">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="AF237">
-        <v>3.6</v>
+        <v>0</v>
       </c>
       <c r="AG237">
-        <v>1.95</v>
+        <v>0</v>
       </c>
       <c r="AH237">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="AI237">
-        <v>1.67</v>
+        <v>0</v>
       </c>
       <c r="AJ237">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="AK237">
-        <v>1.32</v>
+        <v>0</v>
       </c>
       <c r="AL237">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="AM237">
-        <v>1.65</v>
+        <v>0</v>
       </c>
       <c r="AN237">
         <v>1</v>
@@ -50292,43 +50292,43 @@
         <v>7</v>
       </c>
       <c r="BD237">
-        <v>1.75</v>
+        <v>0</v>
       </c>
       <c r="BE237">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="BF237">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="BG237">
-        <v>1.21</v>
+        <v>0</v>
       </c>
       <c r="BH237">
-        <v>3.8</v>
+        <v>0</v>
       </c>
       <c r="BI237">
-        <v>1.42</v>
+        <v>0</v>
       </c>
       <c r="BJ237">
-        <v>2.62</v>
+        <v>0</v>
       </c>
       <c r="BK237">
-        <v>1.75</v>
+        <v>0</v>
       </c>
       <c r="BL237">
-        <v>1.92</v>
+        <v>0</v>
       </c>
       <c r="BM237">
-        <v>2.28</v>
+        <v>0</v>
       </c>
       <c r="BN237">
-        <v>1.55</v>
+        <v>0</v>
       </c>
       <c r="BO237">
-        <v>3.15</v>
+        <v>0</v>
       </c>
       <c r="BP237">
-        <v>1.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:68">
@@ -50381,73 +50381,73 @@
         <v>86</v>
       </c>
       <c r="Q238">
-        <v>2.3</v>
+        <v>0</v>
       </c>
       <c r="R238">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="S238">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="T238">
-        <v>1.37</v>
+        <v>0</v>
       </c>
       <c r="U238">
-        <v>3.04</v>
+        <v>0</v>
       </c>
       <c r="V238">
-        <v>2.88</v>
+        <v>0</v>
       </c>
       <c r="W238">
-        <v>1.41</v>
+        <v>0</v>
       </c>
       <c r="X238">
-        <v>6.2</v>
+        <v>0</v>
       </c>
       <c r="Y238">
-        <v>1.09</v>
+        <v>0</v>
       </c>
       <c r="Z238">
-        <v>999.99</v>
+        <v>0</v>
       </c>
       <c r="AA238">
         <v>0</v>
       </c>
       <c r="AB238">
-        <v>999.99</v>
+        <v>0</v>
       </c>
       <c r="AC238">
-        <v>1.03</v>
+        <v>0</v>
       </c>
       <c r="AD238">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AE238">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="AF238">
-        <v>3.6</v>
+        <v>0</v>
       </c>
       <c r="AG238">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="AH238">
-        <v>1.95</v>
+        <v>0</v>
       </c>
       <c r="AI238">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="AJ238">
-        <v>1.91</v>
+        <v>0</v>
       </c>
       <c r="AK238">
-        <v>1.17</v>
+        <v>0</v>
       </c>
       <c r="AL238">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="AM238">
-        <v>2.12</v>
+        <v>0</v>
       </c>
       <c r="AN238">
         <v>1.71</v>
@@ -50498,43 +50498,43 @@
         <v>11</v>
       </c>
       <c r="BD238">
-        <v>1.38</v>
+        <v>0</v>
       </c>
       <c r="BE238">
-        <v>6.7</v>
+        <v>0</v>
       </c>
       <c r="BF238">
-        <v>3.9</v>
+        <v>0</v>
       </c>
       <c r="BG238">
-        <v>1.22</v>
+        <v>0</v>
       </c>
       <c r="BH238">
-        <v>3.7</v>
+        <v>0</v>
       </c>
       <c r="BI238">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="BJ238">
-        <v>2.6</v>
+        <v>0</v>
       </c>
       <c r="BK238">
-        <v>1.78</v>
+        <v>0</v>
       </c>
       <c r="BL238">
-        <v>1.92</v>
+        <v>0</v>
       </c>
       <c r="BM238">
-        <v>2.32</v>
+        <v>0</v>
       </c>
       <c r="BN238">
-        <v>1.52</v>
+        <v>0</v>
       </c>
       <c r="BO238">
-        <v>3.15</v>
+        <v>0</v>
       </c>
       <c r="BP238">
-        <v>1.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:68">
@@ -50587,73 +50587,73 @@
         <v>86</v>
       </c>
       <c r="Q239">
-        <v>3.2</v>
+        <v>0</v>
       </c>
       <c r="R239">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="S239">
-        <v>3.2</v>
+        <v>0</v>
       </c>
       <c r="T239">
-        <v>1.36</v>
+        <v>0</v>
       </c>
       <c r="U239">
-        <v>3.1</v>
+        <v>0</v>
       </c>
       <c r="V239">
-        <v>2.81</v>
+        <v>0</v>
       </c>
       <c r="W239">
-        <v>1.42</v>
+        <v>0</v>
       </c>
       <c r="X239">
-        <v>6.2</v>
+        <v>0</v>
       </c>
       <c r="Y239">
-        <v>1.09</v>
+        <v>0</v>
       </c>
       <c r="Z239">
-        <v>999.99</v>
+        <v>0</v>
       </c>
       <c r="AA239">
         <v>0</v>
       </c>
       <c r="AB239">
-        <v>999.99</v>
+        <v>0</v>
       </c>
       <c r="AC239">
-        <v>1.03</v>
+        <v>0</v>
       </c>
       <c r="AD239">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AE239">
-        <v>1.22</v>
+        <v>0</v>
       </c>
       <c r="AF239">
-        <v>3.8</v>
+        <v>0</v>
       </c>
       <c r="AG239">
-        <v>1.93</v>
+        <v>0</v>
       </c>
       <c r="AH239">
-        <v>1.93</v>
+        <v>0</v>
       </c>
       <c r="AI239">
-        <v>1.62</v>
+        <v>0</v>
       </c>
       <c r="AJ239">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="AK239">
-        <v>1.49</v>
+        <v>0</v>
       </c>
       <c r="AL239">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="AM239">
-        <v>1.44</v>
+        <v>0</v>
       </c>
       <c r="AN239">
         <v>1.43</v>
@@ -50704,43 +50704,43 @@
         <v>12</v>
       </c>
       <c r="BD239">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="BE239">
-        <v>6.9</v>
+        <v>0</v>
       </c>
       <c r="BF239">
-        <v>2.32</v>
+        <v>0</v>
       </c>
       <c r="BG239">
-        <v>1.22</v>
+        <v>0</v>
       </c>
       <c r="BH239">
-        <v>3.8</v>
+        <v>0</v>
       </c>
       <c r="BI239">
-        <v>1.42</v>
+        <v>0</v>
       </c>
       <c r="BJ239">
-        <v>2.62</v>
+        <v>0</v>
       </c>
       <c r="BK239">
-        <v>1.75</v>
+        <v>0</v>
       </c>
       <c r="BL239">
-        <v>1.92</v>
+        <v>0</v>
       </c>
       <c r="BM239">
-        <v>2.3</v>
+        <v>0</v>
       </c>
       <c r="BN239">
-        <v>1.52</v>
+        <v>0</v>
       </c>
       <c r="BO239">
-        <v>3.1</v>
+        <v>0</v>
       </c>
       <c r="BP239">
-        <v>1.31</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:68">
